--- a/Протокол_11_ЕльсуковПавел.xlsx
+++ b/Протокол_11_ЕльсуковПавел.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966DF29-F0AC-48D7-BDF2-A24D0C55C9D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CA993-BE43-4C21-AA1E-AE0375412A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,18 +236,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,6 +280,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,484 +592,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="17">
         <v>35850</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="17">
         <v>35694</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="17">
         <v>36030</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="17">
         <v>35259</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="17">
         <v>34228</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="18">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="17">
         <v>35908</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="17">
         <v>35140</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="17">
         <v>35228</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="17">
         <v>33284</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="18">
         <v>28</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="17">
         <v>34823</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="17">
         <v>36141</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="17">
         <v>35480</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="17">
         <v>35777</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="17">
         <v>35388</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="17">
         <v>35384</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17">
+        <v>34986</v>
+      </c>
+      <c r="D18" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="17">
+        <v>34132</v>
+      </c>
+      <c r="D19" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="17">
+        <v>35353</v>
+      </c>
+      <c r="D20" s="18">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>34986</v>
-      </c>
-      <c r="D18" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>34132</v>
-      </c>
-      <c r="D19" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2">
-        <v>35353</v>
-      </c>
-      <c r="D20" s="4">
-        <v>23</v>
-      </c>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="17">
         <v>35778</v>
       </c>
-      <c r="D21" s="4">
-        <v>22</v>
+      <c r="D21" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>150</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <f>C24/2.54</f>
         <v>59.055118110236222</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <f>C24/71.12</f>
         <v>2.1091113610798651</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <f>C24/4.45</f>
         <v>33.707865168539321</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="5">
         <f>C24/30.48</f>
         <v>4.9212598425196852</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>180</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <f t="shared" ref="D25:D27" si="0">C25/2.54</f>
         <v>70.866141732283467</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <f t="shared" ref="E25:E27" si="1">C25/71.12</f>
         <v>2.5309336332958376</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <f t="shared" ref="F25:F27" si="2">C25/4.45</f>
         <v>40.449438202247187</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="5">
         <f t="shared" ref="G25:G27" si="3">C25/30.48</f>
         <v>5.9055118110236222</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>160</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>62.99212598425197</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>2.2497187851518561</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>35.955056179775276</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>5.2493438320209975</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>4</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>170</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>66.929133858267718</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>2.3903262092238471</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>38.202247191011232</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>5.5774278215223099</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <f>AVERAGE(C24:C27)</f>
         <v>165</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="14">
         <f>MAX(C24:C27)</f>
         <v>180</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="14">
         <f>MIN(C24:C27)</f>
         <v>150</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Протокол_11_ЕльсуковПавел.xlsx
+++ b/Протокол_11_ЕльсуковПавел.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CA993-BE43-4C21-AA1E-AE0375412A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F64B82-2D01-446E-A85E-6B0A17FF5443}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -281,12 +281,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,17 +300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,12 +606,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,10 +635,10 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="8">
         <v>35850</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="9">
         <v>21</v>
       </c>
     </row>
@@ -652,10 +649,10 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="8">
         <v>35694</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="9">
         <v>22</v>
       </c>
     </row>
@@ -666,10 +663,10 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="8">
         <v>36030</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="9">
         <v>21</v>
       </c>
     </row>
@@ -680,10 +677,10 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="8">
         <v>35259</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="9">
         <v>23</v>
       </c>
     </row>
@@ -694,10 +691,10 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="8">
         <v>34228</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>26</v>
       </c>
     </row>
@@ -708,10 +705,10 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="8">
         <v>35908</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>21</v>
       </c>
     </row>
@@ -722,10 +719,10 @@
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="8">
         <v>35140</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="9">
         <v>23</v>
       </c>
     </row>
@@ -736,10 +733,10 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="8">
         <v>35228</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="9">
         <v>23</v>
       </c>
     </row>
@@ -750,10 +747,10 @@
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="8">
         <v>33284</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="9">
         <v>28</v>
       </c>
       <c r="F11" s="1"/>
@@ -765,10 +762,10 @@
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="8">
         <v>34823</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="9">
         <v>24</v>
       </c>
     </row>
@@ -779,10 +776,10 @@
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="8">
         <v>36141</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="9">
         <v>20</v>
       </c>
     </row>
@@ -793,10 +790,10 @@
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="8">
         <v>35480</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="9">
         <v>22</v>
       </c>
     </row>
@@ -807,10 +804,10 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="8">
         <v>35777</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="9">
         <v>21</v>
       </c>
     </row>
@@ -821,10 +818,10 @@
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="8">
         <v>35388</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="9">
         <v>22</v>
       </c>
     </row>
@@ -835,10 +832,10 @@
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="8">
         <v>35384</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="9">
         <v>22</v>
       </c>
     </row>
@@ -849,10 +846,10 @@
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="8">
         <v>34986</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="9">
         <v>24</v>
       </c>
     </row>
@@ -863,10 +860,10 @@
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="8">
         <v>34132</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="9">
         <v>26</v>
       </c>
     </row>
@@ -877,10 +874,10 @@
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="8">
         <v>35353</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="9">
         <v>23</v>
       </c>
     </row>
@@ -891,10 +888,10 @@
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="8">
         <v>35778</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="9">
         <v>21</v>
       </c>
     </row>
@@ -1030,55 +1027,91 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13">
         <f>AVERAGE(C24:C27)</f>
         <v>165</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="15">
+        <f>AVERAGE(D24:D27)</f>
+        <v>64.960629921259851</v>
+      </c>
+      <c r="E28" s="15">
+        <f>AVERAGE(E24:E27)</f>
+        <v>2.3200224971878516</v>
+      </c>
+      <c r="F28" s="15">
+        <f>AVERAGE(F24:F27)</f>
+        <v>37.078651685393254</v>
+      </c>
+      <c r="G28" s="15">
+        <f>AVERAGE(G24:G27)</f>
+        <v>5.4133858267716537</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
         <f>MAX(C24:C27)</f>
         <v>180</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="D30" s="17">
+        <f>MAX(D24:D27)</f>
+        <v>70.866141732283467</v>
+      </c>
+      <c r="E30" s="17">
+        <f>MAX(E24:E27)</f>
+        <v>2.5309336332958376</v>
+      </c>
+      <c r="F30" s="17">
+        <f>MAX(F24:F27)</f>
+        <v>40.449438202247187</v>
+      </c>
+      <c r="G30" s="17">
+        <f>MAX(G24:G27)</f>
+        <v>5.9055118110236222</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
         <f>MIN(C24:C27)</f>
         <v>150</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="17">
+        <f>MIN(D24:D27)</f>
+        <v>59.055118110236222</v>
+      </c>
+      <c r="E31" s="17">
+        <f>MIN(E24:E27)</f>
+        <v>2.1091113610798651</v>
+      </c>
+      <c r="F31" s="17">
+        <f>MIN(F24:F27)</f>
+        <v>33.707865168539321</v>
+      </c>
+      <c r="G31" s="17">
+        <f>MIN(G24:G27)</f>
+        <v>4.9212598425196852</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
